--- a/results/mp/logistic/corona/confidence/84/topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,25 +43,25 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>fears</t>
   </si>
   <si>
     <t>sc</t>
@@ -70,21 +70,18 @@
     <t>die</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -94,88 +91,121 @@
     <t>stop</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>support</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>relief</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>ready</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>god</t>
   </si>
   <si>
     <t>share</t>
@@ -187,13 +217,7 @@
     <t>well</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>alert</t>
   </si>
   <si>
     <t>giving</t>
@@ -202,19 +226,19 @@
     <t>care</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>helping</t>
   </si>
   <si>
     <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
   </si>
   <si>
     <t>.</t>
@@ -575,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -668,13 +692,13 @@
         <v>28</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -686,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7368421052631579</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L5">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6923076923076923</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6052631578947368</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K7">
-        <v>0.8616187989556136</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>330</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>330</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,13 +942,13 @@
         <v>33</v>
       </c>
       <c r="K8">
-        <v>0.8301886792452831</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C9">
         <v>18</v>
@@ -962,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4333333333333333</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1092,13 @@
         <v>36</v>
       </c>
       <c r="K11">
-        <v>0.7816901408450704</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L11">
-        <v>111</v>
+        <v>315</v>
       </c>
       <c r="M11">
-        <v>111</v>
+        <v>315</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1142,13 @@
         <v>37</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3725490196078431</v>
+        <v>0.3236434108527132</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>349</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3294573643410852</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C14">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2545454545454545</v>
+        <v>0.24</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2533333333333334</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1312,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K16">
-        <v>0.7625</v>
+        <v>0.78125</v>
       </c>
       <c r="L16">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1344,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2203389830508475</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1362,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1394,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1677852348993289</v>
+        <v>0.1138888888888889</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1412,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>124</v>
+        <v>319</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>0.7272727272727273</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1436,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,13 +1468,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1055555555555556</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C19">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1462,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>322</v>
+        <v>236</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K19">
-        <v>0.7021276595744681</v>
+        <v>0.75625</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1486,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1494,37 +1518,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.07539682539682539</v>
+        <v>0.006736842105263158</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>233</v>
+        <v>2359</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K20">
-        <v>0.6875</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1536,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1544,37 +1568,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002910360884749709</v>
+        <v>0.002718446601941748</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E21">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="F21">
-        <v>0.5800000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>5139</v>
+        <v>5136</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K21">
-        <v>0.6744186046511628</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1586,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1594,13 +1618,13 @@
         <v>47</v>
       </c>
       <c r="K22">
-        <v>0.6507936507936508</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1612,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1620,13 +1644,13 @@
         <v>48</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1638,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1646,13 +1670,13 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>0.6296296296296297</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1664,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1672,13 +1696,13 @@
         <v>50</v>
       </c>
       <c r="K25">
-        <v>0.6029411764705882</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L25">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1690,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>135</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1698,13 +1722,13 @@
         <v>51</v>
       </c>
       <c r="K26">
-        <v>0.5909090909090909</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1716,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1724,13 +1748,13 @@
         <v>52</v>
       </c>
       <c r="K27">
-        <v>0.5732217573221757</v>
+        <v>0.7</v>
       </c>
       <c r="L27">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1742,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1750,13 +1774,13 @@
         <v>53</v>
       </c>
       <c r="K28">
-        <v>0.5714285714285714</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1768,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1776,13 +1800,13 @@
         <v>54</v>
       </c>
       <c r="K29">
-        <v>0.5571428571428572</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1794,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1802,13 +1826,13 @@
         <v>55</v>
       </c>
       <c r="K30">
-        <v>0.5538461538461539</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1820,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1828,13 +1852,13 @@
         <v>56</v>
       </c>
       <c r="K31">
-        <v>0.5531914893617021</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L31">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1846,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1854,13 +1878,13 @@
         <v>57</v>
       </c>
       <c r="K32">
-        <v>0.5525423728813559</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L32">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1872,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>132</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1880,13 +1904,13 @@
         <v>58</v>
       </c>
       <c r="K33">
-        <v>0.5428571428571428</v>
+        <v>0.625</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1898,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1906,13 +1930,13 @@
         <v>59</v>
       </c>
       <c r="K34">
-        <v>0.425</v>
+        <v>0.625</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1924,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1932,13 +1956,13 @@
         <v>60</v>
       </c>
       <c r="K35">
-        <v>0.4242424242424243</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1950,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1958,13 +1982,13 @@
         <v>61</v>
       </c>
       <c r="K36">
-        <v>0.4157303370786517</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1976,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1984,13 +2008,13 @@
         <v>62</v>
       </c>
       <c r="K37">
-        <v>0.282051282051282</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2002,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>56</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2010,13 +2034,13 @@
         <v>63</v>
       </c>
       <c r="K38">
-        <v>0.273972602739726</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2028,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2036,13 +2060,13 @@
         <v>64</v>
       </c>
       <c r="K39">
-        <v>0.2549019607843137</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2054,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2062,25 +2086,25 @@
         <v>65</v>
       </c>
       <c r="K40">
-        <v>0.01251042535446205</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1184</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2088,25 +2112,25 @@
         <v>66</v>
       </c>
       <c r="K41">
-        <v>0.006001500375093774</v>
+        <v>0.5212765957446809</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="N41">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>2650</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2114,25 +2138,259 @@
         <v>67</v>
       </c>
       <c r="K42">
-        <v>0.002605732611745841</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42">
         <v>20</v>
       </c>
       <c r="N42">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="O42">
-        <v>0.35</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>4976</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="L43">
+        <v>15</v>
+      </c>
+      <c r="M43">
+        <v>15</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44">
+        <v>0.4382022471910113</v>
+      </c>
+      <c r="L44">
+        <v>39</v>
+      </c>
+      <c r="M44">
+        <v>39</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="L45">
+        <v>18</v>
+      </c>
+      <c r="M45">
+        <v>18</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46">
+        <v>0.2948717948717949</v>
+      </c>
+      <c r="L46">
+        <v>23</v>
+      </c>
+      <c r="M46">
+        <v>23</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K47">
+        <v>0.2465753424657534</v>
+      </c>
+      <c r="L47">
+        <v>18</v>
+      </c>
+      <c r="M47">
+        <v>18</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K48">
+        <v>0.2203389830508475</v>
+      </c>
+      <c r="L48">
+        <v>13</v>
+      </c>
+      <c r="M48">
+        <v>13</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49">
+        <v>0.01251042535446205</v>
+      </c>
+      <c r="L49">
+        <v>15</v>
+      </c>
+      <c r="M49">
+        <v>16</v>
+      </c>
+      <c r="N49">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O49">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50">
+        <v>0.0029120559114735</v>
+      </c>
+      <c r="L50">
+        <v>15</v>
+      </c>
+      <c r="M50">
+        <v>29</v>
+      </c>
+      <c r="N50">
+        <v>0.52</v>
+      </c>
+      <c r="O50">
+        <v>0.48</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51">
+        <v>0.002808988764044944</v>
+      </c>
+      <c r="L51">
+        <v>14</v>
+      </c>
+      <c r="M51">
+        <v>26</v>
+      </c>
+      <c r="N51">
+        <v>0.54</v>
+      </c>
+      <c r="O51">
+        <v>0.46</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>4970</v>
       </c>
     </row>
   </sheetData>
